--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2370138.180697582</v>
+        <v>-2373059.425681834</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>34.88448735196319</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>25.1402448986722</v>
+        <v>13.79223673232705</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.9484870938669</v>
+        <v>27.9484870938679</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>14.02109506150117</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>32.21140045680105</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.88448735196319</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,22 +984,22 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>30.72625645960915</v>
+        <v>34.88448735196187</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>23.38964480609521</v>
       </c>
       <c r="H6" t="n">
-        <v>34.88448735196319</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>34.88448735196187</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>7.33661165351279</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>34.88448735196187</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>34.88448735196319</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>12.71120930970042</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="E8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,43 +1148,43 @@
         <v>13.46317442462584</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>24.91528667358034</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>23.65357118422321</v>
+      </c>
+      <c r="R8" t="n">
         <v>92.66494928910228</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>61.28006716750396</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>92.66494928910228</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.61928733384126</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>33.42924826805087</v>
+      </c>
+      <c r="D9" t="n">
         <v>92.66494928910228</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>33.84730027516771</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>14.34273879062268</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>168.1161921880586</v>
+        <v>247.0916244150701</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>97.27989568773765</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>155.0462988210293</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>249.0007990410437</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769638</v>
+        <v>410.1644063769637</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8518683469699</v>
+        <v>286.8518683469698</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605508</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.9303487751658</v>
+        <v>91.93034877516567</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067864</v>
+        <v>200.6028050067862</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>250.9345864167827</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>298.3781473457416</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H15" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674408</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442975</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>98.39922354384188</v>
+        <v>145.5318701725198</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,19 +1844,19 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
         <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200469</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179206</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
         <v>354.6277363038396</v>
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
         <v>135.6366187464139</v>
@@ -2008,7 +2008,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
         <v>113.8108456707173</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894947</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
         <v>255.2416659947559</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W20" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X20" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464139</v>
@@ -2245,7 +2245,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C23" t="n">
         <v>333.6626894187935</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894974</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295168</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W23" t="n">
         <v>317.630766365199</v>
@@ -2384,7 +2384,7 @@
         <v>338.120898326255</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H24" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453002</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221567</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V25" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W25" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C26" t="n">
         <v>333.6626894187935</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894974</v>
@@ -2570,7 +2570,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295168</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W26" t="n">
         <v>317.630766365199</v>
@@ -2621,7 +2621,7 @@
         <v>338.120898326255</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H27" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453002</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221567</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V28" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W28" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
         <v>333.6626894187935</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894974</v>
@@ -2807,7 +2807,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295169</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179208</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W29" t="n">
         <v>317.630766365199</v>
@@ -2858,7 +2858,7 @@
         <v>338.120898326255</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H30" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453003</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.0474723022157</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716139</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843769</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,10 +3038,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3123,10 +3123,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H33" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I33" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
         <v>117.0052706659984</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,16 +3241,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998808</v>
@@ -3266,7 +3266,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
         <v>323.072839268469</v>
@@ -3275,10 +3275,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894964</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
         <v>255.2416659947559</v>
@@ -3317,19 +3317,19 @@
         <v>60.32014642295177</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
         <v>354.6277363038396</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
         <v>117.0052706659984</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3478,16 +3478,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
         <v>186.9744509998808</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179197</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651978</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
         <v>338.1208983262551</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3715,13 +3715,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368232</v>
@@ -3797,7 +3797,7 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179179</v>
       </c>
       <c r="W41" t="n">
         <v>317.6307663651991</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.59809745908002</v>
+        <v>51.89860703654725</v>
       </c>
       <c r="C5" t="n">
-        <v>98.59809745908002</v>
+        <v>51.89860703654725</v>
       </c>
       <c r="D5" t="n">
-        <v>63.36124154800608</v>
+        <v>51.89860703654725</v>
       </c>
       <c r="E5" t="n">
-        <v>63.36124154800608</v>
+        <v>51.89860703654725</v>
       </c>
       <c r="F5" t="n">
-        <v>56.41574079880262</v>
+        <v>44.95310628734377</v>
       </c>
       <c r="G5" t="n">
-        <v>31.02155403246706</v>
+        <v>31.02155403246796</v>
       </c>
       <c r="H5" t="n">
-        <v>31.02155403246706</v>
+        <v>31.02155403246796</v>
       </c>
       <c r="I5" t="n">
-        <v>31.02155403246706</v>
+        <v>31.02155403246796</v>
       </c>
       <c r="J5" t="n">
-        <v>31.02155403246706</v>
+        <v>31.02155403246796</v>
       </c>
       <c r="K5" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="L5" t="n">
-        <v>5.366676928014064</v>
+        <v>5.366676928012748</v>
       </c>
       <c r="M5" t="n">
-        <v>39.90231940645764</v>
+        <v>39.90231940645496</v>
       </c>
       <c r="N5" t="n">
-        <v>74.4379618849012</v>
+        <v>74.43796188489722</v>
       </c>
       <c r="O5" t="n">
-        <v>98.59809745908002</v>
+        <v>98.59809745907475</v>
       </c>
       <c r="P5" t="n">
-        <v>98.59809745908002</v>
+        <v>84.43537517473013</v>
       </c>
       <c r="Q5" t="n">
-        <v>98.59809745908002</v>
+        <v>51.89860703654725</v>
       </c>
       <c r="R5" t="n">
-        <v>98.59809745908002</v>
+        <v>51.89860703654725</v>
       </c>
       <c r="S5" t="n">
-        <v>98.59809745908002</v>
+        <v>51.89860703654725</v>
       </c>
       <c r="T5" t="n">
-        <v>98.59809745908002</v>
+        <v>51.89860703654725</v>
       </c>
       <c r="U5" t="n">
-        <v>98.59809745908002</v>
+        <v>51.89860703654725</v>
       </c>
       <c r="V5" t="n">
-        <v>98.59809745908002</v>
+        <v>51.89860703654725</v>
       </c>
       <c r="W5" t="n">
-        <v>98.59809745908002</v>
+        <v>51.89860703654725</v>
       </c>
       <c r="X5" t="n">
-        <v>98.59809745908002</v>
+        <v>51.89860703654725</v>
       </c>
       <c r="Y5" t="n">
-        <v>98.59809745908002</v>
+        <v>51.89860703654725</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.06423758570489</v>
+        <v>104.3010934967749</v>
       </c>
       <c r="C6" t="n">
-        <v>69.06423758570489</v>
+        <v>104.3010934967749</v>
       </c>
       <c r="D6" t="n">
-        <v>69.06423758570489</v>
+        <v>104.3010934967749</v>
       </c>
       <c r="E6" t="n">
-        <v>69.06423758570489</v>
+        <v>104.3010934967749</v>
       </c>
       <c r="F6" t="n">
-        <v>38.027614899231</v>
+        <v>69.06423758570227</v>
       </c>
       <c r="G6" t="n">
-        <v>38.027614899231</v>
+        <v>45.43833374116166</v>
       </c>
       <c r="H6" t="n">
-        <v>2.790758988157056</v>
+        <v>45.43833374116166</v>
       </c>
       <c r="I6" t="n">
-        <v>2.790758988157056</v>
+        <v>45.43833374116166</v>
       </c>
       <c r="J6" t="n">
-        <v>2.790758988157056</v>
+        <v>10.20147783008906</v>
       </c>
       <c r="K6" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="L6" t="n">
-        <v>15.78028780133978</v>
+        <v>37.3264014665992</v>
       </c>
       <c r="M6" t="n">
-        <v>50.31593027978334</v>
+        <v>71.86204394504145</v>
       </c>
       <c r="N6" t="n">
-        <v>84.85157275822691</v>
+        <v>106.3976864234837</v>
       </c>
       <c r="O6" t="n">
-        <v>119.3872152366705</v>
+        <v>119.3872152366659</v>
       </c>
       <c r="P6" t="n">
-        <v>139.5379494078528</v>
+        <v>139.5379494078475</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.5379494078528</v>
+        <v>104.3010934967749</v>
       </c>
       <c r="R6" t="n">
-        <v>139.5379494078528</v>
+        <v>104.3010934967749</v>
       </c>
       <c r="S6" t="n">
-        <v>139.5379494078528</v>
+        <v>104.3010934967749</v>
       </c>
       <c r="T6" t="n">
-        <v>139.5379494078528</v>
+        <v>104.3010934967749</v>
       </c>
       <c r="U6" t="n">
-        <v>139.5379494078528</v>
+        <v>104.3010934967749</v>
       </c>
       <c r="V6" t="n">
-        <v>139.5379494078528</v>
+        <v>104.3010934967749</v>
       </c>
       <c r="W6" t="n">
-        <v>104.3010934967788</v>
+        <v>104.3010934967749</v>
       </c>
       <c r="X6" t="n">
-        <v>104.3010934967788</v>
+        <v>104.3010934967749</v>
       </c>
       <c r="Y6" t="n">
-        <v>104.3010934967788</v>
+        <v>104.3010934967749</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="C7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="D7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="E7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="F7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="G7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="H7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="I7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="J7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="K7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="L7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="M7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="N7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="O7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="P7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="R7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="S7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="T7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="U7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="V7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="W7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="X7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.790758988157056</v>
+        <v>2.790758988156949</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215.1597805335745</v>
+        <v>146.7257778916331</v>
       </c>
       <c r="C8" t="n">
-        <v>215.1597805335745</v>
+        <v>146.7257778916331</v>
       </c>
       <c r="D8" t="n">
-        <v>215.1597805335745</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="E8" t="n">
-        <v>121.5588216556934</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="F8" t="n">
-        <v>114.6133209064899</v>
+        <v>46.17931826454857</v>
       </c>
       <c r="G8" t="n">
-        <v>101.0141548210093</v>
+        <v>32.58015217906792</v>
       </c>
       <c r="H8" t="n">
-        <v>7.413195943128183</v>
+        <v>32.58015217906792</v>
       </c>
       <c r="I8" t="n">
-        <v>7.413195943128183</v>
+        <v>32.58015217906792</v>
       </c>
       <c r="J8" t="n">
         <v>7.413195943128183</v>
       </c>
       <c r="K8" t="n">
-        <v>21.18357364821455</v>
+        <v>21.18357364821463</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940376</v>
+        <v>75.16870670940386</v>
       </c>
       <c r="M8" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056151</v>
       </c>
       <c r="N8" t="n">
         <v>258.6453063018263</v>
@@ -4823,31 +4823,31 @@
         <v>370.6597971564091</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6597971564091</v>
+        <v>346.7673010107291</v>
       </c>
       <c r="R8" t="n">
-        <v>370.6597971564091</v>
+        <v>253.166342132848</v>
       </c>
       <c r="S8" t="n">
-        <v>370.6597971564091</v>
+        <v>253.166342132848</v>
       </c>
       <c r="T8" t="n">
-        <v>308.7607394114556</v>
+        <v>253.166342132848</v>
       </c>
       <c r="U8" t="n">
-        <v>308.7607394114556</v>
+        <v>253.166342132848</v>
       </c>
       <c r="V8" t="n">
-        <v>308.7607394114556</v>
+        <v>253.166342132848</v>
       </c>
       <c r="W8" t="n">
-        <v>308.7607394114556</v>
+        <v>253.166342132848</v>
       </c>
       <c r="X8" t="n">
-        <v>215.1597805335745</v>
+        <v>253.166342132848</v>
       </c>
       <c r="Y8" t="n">
-        <v>215.1597805335745</v>
+        <v>159.5653832549669</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.6151136988904</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="C9" t="n">
-        <v>101.0141548210093</v>
+        <v>322.4052647739106</v>
       </c>
       <c r="D9" t="n">
-        <v>101.0141548210093</v>
+        <v>228.8043058960295</v>
       </c>
       <c r="E9" t="n">
-        <v>101.0141548210093</v>
+        <v>135.2033470181484</v>
       </c>
       <c r="F9" t="n">
-        <v>101.0141548210093</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="G9" t="n">
-        <v>101.0141548210093</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="H9" t="n">
-        <v>7.413195943128183</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="I9" t="n">
-        <v>7.413195943128183</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="J9" t="n">
         <v>7.413195943128183</v>
@@ -4893,7 +4893,7 @@
         <v>194.436577061108</v>
       </c>
       <c r="N9" t="n">
-        <v>226.5580308522527</v>
+        <v>286.1748768573193</v>
       </c>
       <c r="O9" t="n">
         <v>317.2247932514008</v>
@@ -4902,31 +4902,31 @@
         <v>370.6597971564091</v>
       </c>
       <c r="Q9" t="n">
-        <v>370.6597971564091</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="R9" t="n">
-        <v>370.6597971564091</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="S9" t="n">
-        <v>370.6597971564091</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="T9" t="n">
-        <v>277.058838278528</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="U9" t="n">
-        <v>277.058838278528</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="V9" t="n">
-        <v>277.058838278528</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="W9" t="n">
-        <v>277.058838278528</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="X9" t="n">
-        <v>277.058838278528</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="Y9" t="n">
-        <v>277.058838278528</v>
+        <v>356.1721822163862</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1859.132475219475</v>
+        <v>2255.174438931363</v>
       </c>
       <c r="C11" t="n">
-        <v>1490.169958279064</v>
+        <v>1886.211921990951</v>
       </c>
       <c r="D11" t="n">
-        <v>1490.169958279064</v>
+        <v>1527.9462233842</v>
       </c>
       <c r="E11" t="n">
-        <v>1104.381705680819</v>
+        <v>1142.157970785956</v>
       </c>
       <c r="F11" t="n">
-        <v>693.3958008912118</v>
+        <v>731.1720659963487</v>
       </c>
       <c r="G11" t="n">
-        <v>278.3233507362083</v>
+        <v>316.0996158413452</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V11" t="n">
-        <v>3009.337405520489</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W11" t="n">
-        <v>3009.337405520489</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X11" t="n">
-        <v>2635.871647259409</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y11" t="n">
-        <v>2245.732315283597</v>
+        <v>2641.774278995485</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>333.710820256795</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="C13" t="n">
-        <v>164.7746373288881</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5218,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1071.910120335303</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W13" t="n">
-        <v>782.4929502983425</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X13" t="n">
-        <v>554.5033994003252</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="Y13" t="n">
-        <v>333.710820256795</v>
+        <v>213.4020639300937</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2218.79531777917</v>
+        <v>1954.773926458868</v>
       </c>
       <c r="C14" t="n">
-        <v>1849.832800838758</v>
+        <v>1585.811409518456</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.316842211442</v>
+        <v>1585.811409518456</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.528589613197</v>
+        <v>1200.023156920212</v>
       </c>
       <c r="F14" t="n">
-        <v>801.5426848235898</v>
+        <v>789.0372521306047</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2352036347374</v>
+        <v>374.7297709417524</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810114</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O14" t="n">
         <v>3311.067850233287</v>
@@ -5297,31 +5297,31 @@
         <v>3813.656640612703</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.161510599077</v>
+        <v>4156.161510599079</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.532414632626</v>
+        <v>3953.532414632628</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423754</v>
+        <v>3700.063135423757</v>
       </c>
       <c r="V14" t="n">
-        <v>3369.000248080184</v>
+        <v>3369.000248080186</v>
       </c>
       <c r="W14" t="n">
-        <v>3369.000248080184</v>
+        <v>3016.231592810072</v>
       </c>
       <c r="X14" t="n">
-        <v>2995.534489819104</v>
+        <v>2642.765834548992</v>
       </c>
       <c r="Y14" t="n">
-        <v>2605.395157843292</v>
+        <v>2341.37376652299</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J15" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L15" t="n">
-        <v>670.3561405779132</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="M15" t="n">
-        <v>1219.274605188202</v>
+        <v>1068.517024943739</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.129953114604</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O15" t="n">
-        <v>2303.534908062854</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P15" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.5196245181905</v>
+        <v>806.3125821199602</v>
       </c>
       <c r="C16" t="n">
-        <v>779.5196245181905</v>
+        <v>637.3763991920533</v>
       </c>
       <c r="D16" t="n">
-        <v>629.4029851058548</v>
+        <v>487.2597597797176</v>
       </c>
       <c r="E16" t="n">
-        <v>629.4029851058548</v>
+        <v>339.3466661973245</v>
       </c>
       <c r="F16" t="n">
-        <v>482.5130376079444</v>
+        <v>339.3466661973245</v>
       </c>
       <c r="G16" t="n">
-        <v>315.1533397258816</v>
+        <v>171.9869683152617</v>
       </c>
       <c r="H16" t="n">
         <v>171.9869683152617</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755866</v>
+        <v>153.8801783755867</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869775</v>
+        <v>396.9405013869776</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042031</v>
+        <v>763.5004667042033</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
@@ -5455,31 +5455,31 @@
         <v>2173.396928727846</v>
       </c>
       <c r="Q16" t="n">
-        <v>2279.16862496767</v>
+        <v>2279.168624967671</v>
       </c>
       <c r="R16" t="n">
-        <v>2204.76693339754</v>
+        <v>2279.168624967671</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685724</v>
+        <v>2093.462713255855</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.760544521728</v>
+        <v>1873.162236091859</v>
       </c>
       <c r="U16" t="n">
-        <v>1798.760544521728</v>
+        <v>1873.162236091859</v>
       </c>
       <c r="V16" t="n">
-        <v>1699.367389426938</v>
+        <v>1726.160347028708</v>
       </c>
       <c r="W16" t="n">
-        <v>1409.950219389978</v>
+        <v>1436.743176991747</v>
       </c>
       <c r="X16" t="n">
-        <v>1181.96066849196</v>
+        <v>1208.75362609373</v>
       </c>
       <c r="Y16" t="n">
-        <v>961.1680893484303</v>
+        <v>987.9610469501999</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
         <v>337.493301607683</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050962</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277775</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M18" t="n">
-        <v>973.3971899277775</v>
+        <v>1381.83934483395</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.289737812103</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O18" t="n">
         <v>1959.694692760353</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315384</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G19" t="n">
         <v>251.2943450749443</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042784</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112804</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497861</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216579</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943803</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233285</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767225</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924544</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283562</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382057</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437411</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.3428185018</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851457</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>216.5575109835858</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334501</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>879.6062951712944</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1428.524759781583</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042784</v>
@@ -5929,19 +5929,19 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
         <v>1664.992195357083</v>
@@ -5950,7 +5950,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254981</v>
@@ -5975,49 +5975,49 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.178257479667</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511501</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076824</v>
       </c>
       <c r="K23" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951436</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U23" t="n">
         <v>3795.851627400161</v>
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J24" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>670.3561405779132</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.274605188202</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477716</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.55207904089</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.71920135497</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313933</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028686</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C26" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
         <v>1104.234664943806</v>
@@ -6215,61 +6215,61 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076835</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951446</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233286</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V26" t="n">
         <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J27" t="n">
         <v>216.5575109835859</v>
@@ -6309,22 +6309,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277775</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.315654538066</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
         <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477716</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J28" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.55207904089</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.71920135497</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313933</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028686</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X28" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="29">
@@ -6449,43 +6449,43 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
         <v>4188.091007924546</v>
@@ -6494,19 +6494,19 @@
         <v>4017.391409283564</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
         <v>216.5575109835859</v>
@@ -6546,22 +6546,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>973.3971899277775</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.770967407337</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.626315333739</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H31" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042778</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443587</v>
+        <v>459.5287020443605</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902762</v>
+        <v>857.382767690278</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040891</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354971</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313933</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028686</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597203</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
         <v>1458.093420216582</v>
@@ -6686,64 +6686,64 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
         <v>216.5575109835859</v>
@@ -6783,22 +6783,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277775</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>973.3971899277775</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1551.25253785418</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>2057.657492802429</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6835,25 +6835,25 @@
         <v>872.8624197502102</v>
       </c>
       <c r="C34" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
         <v>185.1742787042783</v>
@@ -6871,31 +6871,31 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
         <v>1211.444469073043</v>
@@ -6911,67 +6911,67 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E35" t="n">
         <v>1104.234664943805</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796659</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162824</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511481</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J35" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437413</v>
@@ -6980,7 +6980,7 @@
         <v>2834.342818501802</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
@@ -7023,19 +7023,19 @@
         <v>973.3971899277775</v>
       </c>
       <c r="M36" t="n">
-        <v>973.3971899277775</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N36" t="n">
-        <v>1551.25253785418</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>2057.657492802429</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502094</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609041</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039796</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749437</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H37" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
         <v>2087.878830313935</v>
@@ -7120,25 +7120,25 @@
         <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7208,7 +7208,7 @@
         <v>3795.851627400161</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
         <v>3175.879079437414</v>
@@ -7251,28 +7251,28 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>388.0214583249805</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>841.8200879193078</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M39" t="n">
-        <v>850.6694118551811</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E40" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G40" t="n">
         <v>251.2943450749442</v>
@@ -7330,13 +7330,13 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076835</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951446</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233285</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767225</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924544</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283562</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400159</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J42" t="n">
-        <v>216.5575109835859</v>
+        <v>216.5575109835858</v>
       </c>
       <c r="K42" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334501</v>
       </c>
       <c r="L42" t="n">
-        <v>973.3971899277775</v>
+        <v>973.3971899277774</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.770967407337</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.626315333739</v>
+        <v>2100.171002464468</v>
       </c>
       <c r="O42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7552,34 +7552,34 @@
         <v>617.6685920609046</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042782</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
         <v>2087.878830313935</v>
@@ -7600,7 +7600,7 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357083</v>
@@ -7625,73 +7625,73 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162846</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511697</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076866</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951477</v>
+        <v>766.6831886951446</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746741</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7710,43 +7710,43 @@
         <v>618.1705534421001</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9330984366446</v>
+        <v>458.9330984366445</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3985404635296</v>
+        <v>312.3985404635295</v>
       </c>
       <c r="G45" t="n">
-        <v>176.4447347764804</v>
+        <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J45" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>670.3561405779133</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M45" t="n">
-        <v>1219.274605188202</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7801,13 +7801,13 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
         <v>857.3827676902786</v>
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272331</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
         <v>106.7437663446525</v>
@@ -9577,7 +9577,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775129</v>
+        <v>65.34295837775269</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272331</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>106.7437663446525</v>
@@ -9802,7 +9802,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094423</v>
       </c>
       <c r="N25" t="n">
         <v>171.8177168444618</v>
@@ -10039,10 +10039,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094423</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444617</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10267,10 +10267,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272257</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446499</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.72880404776738</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -22565,16 +22565,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>159.9014836333536</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22583,10 +22583,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22644,10 +22644,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>40.15109864434231</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22668,7 +22668,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -22732,13 +22732,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>126.4915721992618</v>
+        <v>47.51613997225033</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>51.33557733047471</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>70.66335656800788</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>105.6822425796393</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>87.85979131031189</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
-        <v>153.7384197799861</v>
+        <v>106.6057731513082</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57981.63991445713</v>
+        <v>57981.63991445712</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>51149.56484563812</v>
+        <v>51149.56484563811</v>
       </c>
       <c r="F2" t="n">
-        <v>57505.73864634826</v>
+        <v>57505.73864634825</v>
       </c>
       <c r="G2" t="n">
-        <v>61578.13273982131</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="H2" t="n">
-        <v>61578.1327398213</v>
+        <v>61578.13273982132</v>
       </c>
       <c r="I2" t="n">
         <v>61578.1327398213</v>
@@ -26338,22 +26338,22 @@
         <v>61578.1327398213</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982132</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="L2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="M2" t="n">
+        <v>61578.13273982123</v>
+      </c>
+      <c r="N2" t="n">
+        <v>61578.13273982123</v>
+      </c>
+      <c r="O2" t="n">
+        <v>61578.13273982124</v>
+      </c>
+      <c r="P2" t="n">
         <v>61578.13273982126</v>
-      </c>
-      <c r="M2" t="n">
-        <v>61578.13273982125</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61578.13273982124</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982127</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26366,46 +26366,46 @@
         <v>314444.4864346</v>
       </c>
       <c r="C3" t="n">
-        <v>56271.05156263887</v>
+        <v>56271.05156263668</v>
       </c>
       <c r="D3" t="n">
-        <v>88049.46972945379</v>
+        <v>88049.46972945586</v>
       </c>
       <c r="E3" t="n">
-        <v>728470.1008399349</v>
+        <v>728470.1008399345</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963075</v>
+        <v>215052.1096963082</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177124</v>
+        <v>25288.16188177108</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8978.150740800062</v>
+        <v>8978.150740799811</v>
       </c>
       <c r="L3" t="n">
-        <v>39911.87677390358</v>
+        <v>39911.87677390387</v>
       </c>
       <c r="M3" t="n">
-        <v>184096.0922694315</v>
+        <v>184096.0922694314</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578626</v>
+        <v>56542.29359578647</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330698.4677251943</v>
+        <v>330698.4677251941</v>
       </c>
       <c r="C4" t="n">
-        <v>340674.6247663263</v>
+        <v>340674.624766327</v>
       </c>
       <c r="D4" t="n">
         <v>312487.2615518147</v>
@@ -26427,34 +26427,34 @@
         <v>14649.95482218994</v>
       </c>
       <c r="F4" t="n">
-        <v>14769.42975388841</v>
+        <v>14769.4297538885</v>
       </c>
       <c r="G4" t="n">
-        <v>45839.31483610854</v>
+        <v>45839.31483610847</v>
       </c>
       <c r="H4" t="n">
-        <v>45839.31483610853</v>
+        <v>45839.31483610848</v>
       </c>
       <c r="I4" t="n">
-        <v>45839.31483610854</v>
+        <v>45839.3148361085</v>
       </c>
       <c r="J4" t="n">
-        <v>45839.31483610858</v>
+        <v>45839.31483610855</v>
       </c>
       <c r="K4" t="n">
-        <v>45839.31483610857</v>
+        <v>45839.31483610852</v>
       </c>
       <c r="L4" t="n">
-        <v>45839.31483610854</v>
+        <v>45839.3148361085</v>
       </c>
       <c r="M4" t="n">
-        <v>45839.31483610861</v>
+        <v>45839.31483610856</v>
       </c>
       <c r="N4" t="n">
-        <v>45839.31483610858</v>
+        <v>45839.31483610856</v>
       </c>
       <c r="O4" t="n">
-        <v>45839.3148361085</v>
+        <v>45839.31483610865</v>
       </c>
       <c r="P4" t="n">
         <v>45839.31483610853</v>
@@ -26470,22 +26470,22 @@
         <v>40741.33736580378</v>
       </c>
       <c r="C5" t="n">
-        <v>43939.64495097147</v>
+        <v>43939.64495097134</v>
       </c>
       <c r="D5" t="n">
         <v>49237.11966583622</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060697</v>
+        <v>92448.996000607</v>
       </c>
       <c r="G5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215524</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215527</v>
@@ -26494,10 +26494,10 @@
         <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215525</v>
@@ -26506,10 +26506,10 @@
         <v>95106.43410215525</v>
       </c>
       <c r="O5" t="n">
+        <v>95106.43410215524</v>
+      </c>
+      <c r="P5" t="n">
         <v>95106.43410215525</v>
-      </c>
-      <c r="P5" t="n">
-        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-627902.6516111409</v>
+        <v>-628022.5347053196</v>
       </c>
       <c r="C6" t="n">
-        <v>-379307.1885401154</v>
+        <v>-379307.1885401137</v>
       </c>
       <c r="D6" t="n">
-        <v>-388195.7182072835</v>
+        <v>-388195.7182072856</v>
       </c>
       <c r="E6" t="n">
-        <v>-766276.8313778801</v>
+        <v>-766624.4503076858</v>
       </c>
       <c r="F6" t="n">
-        <v>-264764.7968044546</v>
+        <v>-264900.5432742378</v>
       </c>
       <c r="G6" t="n">
-        <v>-104655.7780802137</v>
+        <v>-104655.7780802136</v>
       </c>
       <c r="H6" t="n">
-        <v>-79367.61619844235</v>
+        <v>-79367.61619844244</v>
       </c>
       <c r="I6" t="n">
-        <v>-79367.61619844263</v>
+        <v>-79367.61619844244</v>
       </c>
       <c r="J6" t="n">
-        <v>-79367.61619844256</v>
+        <v>-79367.61619844251</v>
       </c>
       <c r="K6" t="n">
-        <v>-88345.76693924257</v>
+        <v>-88345.76693924231</v>
       </c>
       <c r="L6" t="n">
-        <v>-119279.4929723461</v>
+        <v>-119279.4929723464</v>
       </c>
       <c r="M6" t="n">
-        <v>-263463.7084678742</v>
+        <v>-263463.708467874</v>
       </c>
       <c r="N6" t="n">
-        <v>-135909.9097942288</v>
+        <v>-135909.9097942291</v>
       </c>
       <c r="O6" t="n">
-        <v>-79367.61619844248</v>
+        <v>-79367.61619844254</v>
       </c>
       <c r="P6" t="n">
-        <v>-79367.61619844257</v>
+        <v>-79367.61619844264</v>
       </c>
     </row>
   </sheetData>
@@ -26695,31 +26695,31 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221395</v>
@@ -26738,7 +26738,7 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>375.737069723491</v>
+        <v>375.7370697234891</v>
       </c>
       <c r="D3" t="n">
         <v>457.5913187641656</v>
@@ -26790,13 +26790,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196319</v>
+        <v>34.88448735196187</v>
       </c>
       <c r="D4" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26805,13 +26805,13 @@
         <v>1062.255112188953</v>
       </c>
       <c r="H4" t="n">
+        <v>1062.255112188953</v>
+      </c>
+      <c r="I4" t="n">
         <v>1062.255112188952</v>
       </c>
-      <c r="I4" t="n">
-        <v>1062.255112188953</v>
-      </c>
       <c r="J4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="K4" t="n">
         <v>1062.255112188953</v>
@@ -26820,13 +26820,13 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="P4" t="n">
         <v>1062.255112188953</v>
@@ -26917,16 +26917,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.35003119794419e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.243449787580175e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>49.41884193432674</v>
+        <v>49.4188419343248</v>
       </c>
       <c r="D3" t="n">
-        <v>81.85424904067457</v>
+        <v>81.85424904067651</v>
       </c>
       <c r="E3" t="n">
-        <v>632.1853818291327</v>
+        <v>632.1853818291324</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268242</v>
+        <v>188.3831700268247</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196319</v>
+        <v>34.88448735196187</v>
       </c>
       <c r="D4" t="n">
-        <v>57.7804619371391</v>
+        <v>57.78046193714043</v>
       </c>
       <c r="E4" t="n">
-        <v>738.7365061131906</v>
+        <v>738.7365061131901</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866597</v>
+        <v>230.8536567866604</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,28 +27030,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>34.88448735196221</v>
+      </c>
+      <c r="L4" t="n">
+        <v>57.78046193714044</v>
+      </c>
+      <c r="M4" t="n">
+        <v>738.7365061131899</v>
+      </c>
+      <c r="N4" t="n">
+        <v>230.8536567866604</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>34.88448735196319</v>
-      </c>
-      <c r="L4" t="n">
-        <v>57.78046193713877</v>
-      </c>
-      <c r="M4" t="n">
-        <v>738.7365061131904</v>
-      </c>
-      <c r="N4" t="n">
-        <v>230.8536567866599</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27154,16 +27154,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.35003119794419e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196319</v>
+        <v>34.88448735196187</v>
       </c>
       <c r="L4" t="n">
-        <v>57.7804619371391</v>
+        <v>57.78046193714043</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131906</v>
+        <v>738.7365061131901</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866597</v>
+        <v>230.8536567866604</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>325.5440877232402</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,16 +27397,16 @@
         <v>326.0400019133721</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J2" t="n">
         <v>69.70579724700553</v>
       </c>
       <c r="K2" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27415,10 +27415,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.069265482343781</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>80.64258426171736</v>
@@ -27436,7 +27436,7 @@
         <v>251.2407063421153</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27476,10 +27476,10 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I3" t="n">
-        <v>75.35636030051944</v>
+        <v>35.20526165617714</v>
       </c>
       <c r="J3" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>24.50126734687161</v>
@@ -27500,7 +27500,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>102.1006281848752</v>
@@ -27564,13 +27564,13 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L4" t="n">
-        <v>47.39929435887774</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>46.68471506615327</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>37.63776203285606</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>55.28283671961447</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>319.7985542687198</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,16 +27628,16 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>388.6519918336548</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>324.0053859738347</v>
+        <v>324.0053859738348</v>
       </c>
       <c r="I5" t="n">
-        <v>152.2423081412003</v>
+        <v>152.2423081412006</v>
       </c>
       <c r="J5" t="n">
-        <v>52.84403871183542</v>
+        <v>52.84403871183611</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27655,16 +27655,16 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>14.02109506150006</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>59.18859846499166</v>
+        <v>26.97719800819143</v>
       </c>
       <c r="R5" t="n">
-        <v>120.7015430160688</v>
+        <v>120.7015430160693</v>
       </c>
       <c r="S5" t="n">
-        <v>174.5995329980079</v>
+        <v>174.5995329980081</v>
       </c>
       <c r="T5" t="n">
         <v>216.4836323873893</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.6486962979041</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,22 +27704,22 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>114.3429559337747</v>
+        <v>110.184725041422</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5353279943714</v>
+        <v>113.1456831882762</v>
       </c>
       <c r="H6" t="n">
-        <v>69.5455509644283</v>
+        <v>104.4300383163915</v>
       </c>
       <c r="I6" t="n">
-        <v>71.69656870443957</v>
+        <v>71.69656870443973</v>
       </c>
       <c r="J6" t="n">
-        <v>50.48147365804668</v>
+        <v>15.59698630608521</v>
       </c>
       <c r="K6" t="n">
-        <v>7.336611653512108</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27737,10 +27737,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.81713562156412</v>
+        <v>1.932648269602794</v>
       </c>
       <c r="R6" t="n">
-        <v>95.50088170919281</v>
+        <v>95.50088170919307</v>
       </c>
       <c r="S6" t="n">
         <v>156.6714117615833</v>
@@ -27755,7 +27755,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>216.8104958089564</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27792,37 +27792,37 @@
         <v>156.2030601436761</v>
       </c>
       <c r="I7" t="n">
-        <v>135.0744384248762</v>
+        <v>135.0744384248763</v>
       </c>
       <c r="J7" t="n">
-        <v>79.09202486169792</v>
+        <v>79.09202486169818</v>
       </c>
       <c r="K7" t="n">
-        <v>50.29326225141713</v>
+        <v>50.29326225141753</v>
       </c>
       <c r="L7" t="n">
-        <v>34.15018385077973</v>
+        <v>34.15018385078024</v>
       </c>
       <c r="M7" t="n">
-        <v>32.71538569773368</v>
+        <v>32.71538569773422</v>
       </c>
       <c r="N7" t="n">
-        <v>24.0005920938311</v>
+        <v>24.00059209383163</v>
       </c>
       <c r="O7" t="n">
-        <v>42.68670304100935</v>
+        <v>42.68670304100985</v>
       </c>
       <c r="P7" t="n">
-        <v>55.78036510486365</v>
+        <v>55.78036510486407</v>
       </c>
       <c r="Q7" t="n">
-        <v>94.76870410119869</v>
+        <v>94.76870410119899</v>
       </c>
       <c r="R7" t="n">
-        <v>146.8278906090976</v>
+        <v>146.8278906090978</v>
       </c>
       <c r="S7" t="n">
-        <v>212.2085986491045</v>
+        <v>212.2085986491046</v>
       </c>
       <c r="T7" t="n">
         <v>225.0505661041825</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>370.0226323537802</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>262.0180923315806</v>
       </c>
       <c r="E8" t="n">
-        <v>289.2654207831595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>227.9704273259875</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I8" t="n">
         <v>139.5561335235496</v>
       </c>
       <c r="J8" t="n">
-        <v>24.91528667358034</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,16 +27895,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.65357118422321</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>100.0310828299331</v>
+        <v>7.366133540830774</v>
       </c>
       <c r="S8" t="n">
         <v>167.1010256612668</v>
       </c>
       <c r="T8" t="n">
-        <v>153.7630949679233</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U8" t="n">
         <v>251.1984878605957</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>277.0661513893667</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>293.5729893669513</v>
       </c>
     </row>
     <row r="9">
@@ -27929,31 +27929,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.91389631602608</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>80.04354969921346</v>
+        <v>139.2792507202649</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>54.78011627553647</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>64.98013116629866</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>52.4042631042816</v>
       </c>
       <c r="G9" t="n">
         <v>136.3592641379443</v>
       </c>
       <c r="H9" t="n">
-        <v>10.06468283495368</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I9" t="n">
         <v>65.63472101604999</v>
       </c>
       <c r="J9" t="n">
-        <v>33.84730027516771</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,7 +27974,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.34273879062268</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>84.5694784127797</v>
@@ -27983,7 +27983,7 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T9" t="n">
-        <v>103.5325490100187</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U9" t="n">
         <v>225.8766285924705</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605378</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29314,7 +29314,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221503</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605642</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605503</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522152</v>
       </c>
       <c r="W38" t="n">
-        <v>31.6102023522152</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221702</v>
       </c>
       <c r="W41" t="n">
         <v>31.61020235221395</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.510500782808003</v>
+        <v>1.510500782807995</v>
       </c>
       <c r="H5" t="n">
-        <v>15.46941614193246</v>
+        <v>15.46941614193238</v>
       </c>
       <c r="I5" t="n">
-        <v>58.23358142920559</v>
+        <v>58.23358142920529</v>
       </c>
       <c r="J5" t="n">
-        <v>128.2018658148509</v>
+        <v>128.2018658148502</v>
       </c>
       <c r="K5" t="n">
-        <v>192.1413639511136</v>
+        <v>192.1413639511127</v>
       </c>
       <c r="L5" t="n">
-        <v>238.3683522829741</v>
+        <v>238.3683522829729</v>
       </c>
       <c r="M5" t="n">
-        <v>265.2307205792359</v>
+        <v>265.2307205792346</v>
       </c>
       <c r="N5" t="n">
-        <v>264.2975509485541</v>
+        <v>264.2975509485528</v>
       </c>
       <c r="O5" t="n">
-        <v>254.5023887693421</v>
+        <v>254.5023887693408</v>
       </c>
       <c r="P5" t="n">
-        <v>217.2119006937695</v>
+        <v>217.2119006937684</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.1170914094578</v>
+        <v>163.117091409457</v>
       </c>
       <c r="R5" t="n">
-        <v>94.8839947980633</v>
+        <v>94.8839947980628</v>
       </c>
       <c r="S5" t="n">
-        <v>34.4205365882374</v>
+        <v>34.42053658823723</v>
       </c>
       <c r="T5" t="n">
-        <v>6.612217176742036</v>
+        <v>6.612217176742002</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1208400626246402</v>
+        <v>0.1208400626246396</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8081891688392071</v>
+        <v>0.8081891688392029</v>
       </c>
       <c r="H6" t="n">
-        <v>7.805405920104975</v>
+        <v>7.805405920104935</v>
       </c>
       <c r="I6" t="n">
-        <v>27.82581129556042</v>
+        <v>27.82581129556028</v>
       </c>
       <c r="J6" t="n">
-        <v>76.35615300862001</v>
+        <v>76.35615300861961</v>
       </c>
       <c r="K6" t="n">
-        <v>130.5048273208469</v>
+        <v>130.5048273208462</v>
       </c>
       <c r="L6" t="n">
-        <v>151.6751159548062</v>
+        <v>173.438867131836</v>
       </c>
       <c r="M6" t="n">
-        <v>177.0185212739815</v>
+        <v>177.0185212739802</v>
       </c>
       <c r="N6" t="n">
-        <v>166.2261994352965</v>
+        <v>166.2261994352952</v>
       </c>
       <c r="O6" t="n">
-        <v>177.4807317964076</v>
+        <v>155.716980619376</v>
       </c>
       <c r="P6" t="n">
-        <v>154.3286843549184</v>
+        <v>154.3286843549176</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.1646384644574</v>
+        <v>103.1646384644569</v>
       </c>
       <c r="R6" t="n">
-        <v>50.17862225477114</v>
+        <v>50.17862225477088</v>
       </c>
       <c r="S6" t="n">
-        <v>15.01175934225456</v>
+        <v>15.01175934225448</v>
       </c>
       <c r="T6" t="n">
-        <v>3.257569500715926</v>
+        <v>3.257569500715909</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05317034005521101</v>
+        <v>0.05317034005521074</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6775586503210492</v>
+        <v>0.6775586503210458</v>
       </c>
       <c r="H7" t="n">
-        <v>6.024112363763515</v>
+        <v>6.024112363763484</v>
       </c>
       <c r="I7" t="n">
-        <v>20.37603650238211</v>
+        <v>20.376036502382</v>
       </c>
       <c r="J7" t="n">
-        <v>47.90339657769818</v>
+        <v>47.90339657769793</v>
       </c>
       <c r="K7" t="n">
-        <v>78.71999591911825</v>
+        <v>78.71999591911785</v>
       </c>
       <c r="L7" t="n">
-        <v>100.7344924304586</v>
+        <v>100.734492430458</v>
       </c>
       <c r="M7" t="n">
-        <v>106.2103982498714</v>
+        <v>106.2103982498708</v>
       </c>
       <c r="N7" t="n">
-        <v>103.6849523714021</v>
+        <v>103.6849523714016</v>
       </c>
       <c r="O7" t="n">
-        <v>95.76983541083344</v>
+        <v>95.76983541083294</v>
       </c>
       <c r="P7" t="n">
-        <v>81.94763894428397</v>
+        <v>81.94763894428354</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.73629752824714</v>
+        <v>56.73629752824685</v>
       </c>
       <c r="R7" t="n">
-        <v>30.4655007680719</v>
+        <v>30.46550076807174</v>
       </c>
       <c r="S7" t="n">
-        <v>11.80799938786774</v>
+        <v>11.80799938786768</v>
       </c>
       <c r="T7" t="n">
-        <v>2.895023324099028</v>
+        <v>2.895023324099013</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03695774456296637</v>
+        <v>0.03695774456296617</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31613,10 +31613,10 @@
         <v>234.7989832111206</v>
       </c>
       <c r="N9" t="n">
-        <v>163.7876250036815</v>
+        <v>224.0066613724356</v>
       </c>
       <c r="O9" t="n">
-        <v>234.1788327264122</v>
+        <v>173.9597963576581</v>
       </c>
       <c r="P9" t="n">
         <v>187.9491588335306</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I14" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N14" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32069,37 +32069,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J15" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155583</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N15" t="n">
-        <v>715.0339827160627</v>
+        <v>494.9858886872157</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578282</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P15" t="n">
-        <v>177.6727308988297</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q15" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S15" t="n">
         <v>51.06610426486996</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H16" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I16" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
         <v>162.9549067838146</v>
@@ -32160,31 +32160,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P16" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32306,31 +32306,31 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>687.6080308054954</v>
       </c>
       <c r="N18" t="n">
-        <v>616.0816594412378</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578282</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892349</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q18" t="n">
         <v>350.9392912691326</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838146</v>
@@ -32397,31 +32397,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32543,37 +32543,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>502.1985563837573</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838146</v>
@@ -32634,31 +32634,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I23" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N23" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32780,37 +32780,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>342.7055046019002</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H25" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838146</v>
@@ -32871,31 +32871,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P25" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H26" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I26" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N26" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R26" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S26" t="n">
         <v>117.0897208110796</v>
@@ -33017,28 +33017,28 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H27" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>577.6550422513133</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H28" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I28" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J28" t="n">
         <v>162.9549067838146</v>
@@ -33108,31 +33108,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L28" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M28" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N28" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O28" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P28" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q28" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R28" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H29" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I29" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N29" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R29" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S29" t="n">
         <v>117.0897208110796</v>
@@ -33254,37 +33254,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H30" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>409.1782535983407</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H31" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I31" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J31" t="n">
         <v>162.9549067838146</v>
@@ -33345,31 +33345,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L31" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O31" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P31" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q31" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R31" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H32" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I32" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J32" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K32" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L32" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M32" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N32" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O32" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P32" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q32" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R32" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S32" t="n">
         <v>117.0897208110796</v>
@@ -33491,37 +33491,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H33" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I33" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P33" t="n">
-        <v>401.018627090653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H34" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I34" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J34" t="n">
         <v>162.9549067838146</v>
@@ -33582,31 +33582,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L34" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M34" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N34" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O34" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P34" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q34" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R34" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S34" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T34" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U34" t="n">
         <v>0.1257206430118155</v>
@@ -33743,22 +33743,22 @@
         <v>596.9368339155583</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160627</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750705</v>
       </c>
       <c r="P36" t="n">
-        <v>401.018627090653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33971,7 +33971,7 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
         <v>443.9435090247269</v>
@@ -33980,22 +33980,22 @@
         <v>596.9368339155583</v>
       </c>
       <c r="M39" t="n">
-        <v>151.0727449683551</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N39" t="n">
         <v>715.0339827160627</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750705</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34153,7 +34153,7 @@
         <v>554.881956697201</v>
       </c>
       <c r="R41" t="n">
-        <v>322.7706933581568</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S41" t="n">
         <v>117.0897208110796</v>
@@ -34217,22 +34217,22 @@
         <v>596.9368339155583</v>
       </c>
       <c r="M42" t="n">
-        <v>409.1782535983407</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N42" t="n">
         <v>715.0339827160627</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578282</v>
+        <v>602.670171575071</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34366,13 +34366,13 @@
         <v>198.0955112043509</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383735</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K44" t="n">
         <v>653.6149895171635</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869749</v>
+        <v>810.8671910869762</v>
       </c>
       <c r="M44" t="n">
         <v>902.2459874654295</v>
@@ -34448,7 +34448,7 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155583</v>
@@ -34457,19 +34457,19 @@
         <v>696.5971294879668</v>
       </c>
       <c r="N45" t="n">
-        <v>342.7055046019</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750705</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34939,16 +34939,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.601937312986877</v>
+        <v>2.601937312985655</v>
       </c>
       <c r="M5" t="n">
-        <v>34.8844873519632</v>
+        <v>34.88448735196184</v>
       </c>
       <c r="N5" t="n">
-        <v>34.88448735196319</v>
+        <v>34.88448735196187</v>
       </c>
       <c r="O5" t="n">
-        <v>24.40417734765538</v>
+        <v>24.40417734765407</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>13.12073617493205</v>
+        <v>34.88448735196187</v>
       </c>
       <c r="M6" t="n">
-        <v>34.88448735196319</v>
+        <v>34.88448735196187</v>
       </c>
       <c r="N6" t="n">
-        <v>34.88448735196319</v>
+        <v>34.88448735196187</v>
       </c>
       <c r="O6" t="n">
-        <v>34.88448735196319</v>
+        <v>13.12073617493156</v>
       </c>
       <c r="P6" t="n">
-        <v>20.35427694058819</v>
+        <v>20.3542769405874</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35261,10 +35261,10 @@
         <v>92.66494928910228</v>
       </c>
       <c r="N9" t="n">
-        <v>32.44591292034817</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="O9" t="n">
-        <v>91.58258828196773</v>
+        <v>31.36355191321363</v>
       </c>
       <c r="P9" t="n">
         <v>53.97475141920035</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N14" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356841</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327294</v>
+        <v>363.6441766038824</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133838</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P15" t="n">
-        <v>43.69832348449949</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q15" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714183</v>
+        <v>69.59572666714186</v>
       </c>
       <c r="K16" t="n">
-        <v>245.5154777892837</v>
+        <v>245.5154777892838</v>
       </c>
       <c r="L16" t="n">
-        <v>370.2625912295208</v>
+        <v>370.2625912295209</v>
       </c>
       <c r="M16" t="n">
-        <v>400.8840515372958</v>
+        <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
         <v>396.8414363488768</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386572</v>
+        <v>350.3692208386573</v>
       </c>
       <c r="P16" t="n">
         <v>276.0431317030919</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.8400972119441</v>
+        <v>106.8400972119442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>545.4739968834771</v>
       </c>
       <c r="N18" t="n">
-        <v>484.7399473579044</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133838</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749046</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q18" t="n">
         <v>210.9575171831111</v>
@@ -36121,28 +36121,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>363.6441766038831</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133838</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,10 +36294,10 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641579</v>
+        <v>138.4502995641593</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-1.191415092284612e-12</v>
       </c>
       <c r="J23" t="n">
         <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>211.3637925185669</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133838</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895066</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K26" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L26" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N26" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276938</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>435.0587978068688</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895066</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K29" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L29" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N29" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>267.0442196763224</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133838</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193551</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414951</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817349</v>
@@ -37008,7 +37008,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K32" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L32" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N32" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O32" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P32" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133838</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P33" t="n">
-        <v>267.0442196763228</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,16 +37227,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
         <v>381.9794231908712</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.392376674115752e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>255.0635279116842</v>
@@ -37391,22 +37391,22 @@
         <v>458.3824541356841</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327294</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133838</v>
+        <v>460.073927130626</v>
       </c>
       <c r="P36" t="n">
-        <v>267.0442196763228</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,13 +37473,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q37" t="n">
         <v>138.4502995641581</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
         <v>306.102070050368</v>
@@ -37628,22 +37628,22 @@
         <v>458.3824541356841</v>
       </c>
       <c r="M39" t="n">
-        <v>8.938711046336739</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327294</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133838</v>
+        <v>460.073927130626</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>332.5762668227514</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>458.3824541356841</v>
       </c>
       <c r="M42" t="n">
-        <v>267.0442196763224</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327294</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133838</v>
+        <v>460.0739271306265</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116872</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K44" t="n">
         <v>433.525138472183</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169876</v>
+        <v>575.100776116989</v>
       </c>
       <c r="M44" t="n">
         <v>671.8997542381568</v>
@@ -38096,7 +38096,7 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356841</v>
@@ -38105,19 +38105,19 @@
         <v>554.4630955659484</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3637925185667</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133838</v>
+        <v>460.073927130626</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
